--- a/curso-completo/excel_365_do_zero_ao_avancado/5.basico_formatacao_de_tabela_e_analise_de_dados/103.estrutura_de_topicos_agrupar_e_desagrupar/79+-+Estrutura+de+Tópicos+Agrupar+e+Desagrupar.xlsx
+++ b/curso-completo/excel_365_do_zero_ao_avancado/5.basico_formatacao_de_tabela_e_analise_de_dados/103.estrutura_de_topicos_agrupar_e_desagrupar/79+-+Estrutura+de+Tópicos+Agrupar+e+Desagrupar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aula\Desktop\Curso de Excel\Capítulo 04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel-nivel-especialista\curso-completo\excel_365_do_zero_ao_avancado\5.basico_formatacao_de_tabela_e_analise_de_dados\103.estrutura_de_topicos_agrupar_e_desagrupar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754BC20F-9827-4C7E-9978-499AB0708A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC41D1E-8A74-40CC-96EA-66B239FB16DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercício 01" sheetId="24" r:id="rId1"/>
@@ -266,9 +266,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -306,7 +306,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -412,7 +412,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -554,7 +554,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -567,11 +567,11 @@
   </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="17.109375" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" customWidth="1"/>
@@ -593,7 +593,7 @@
       </c>
       <c r="B4" s="12"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -602,7 +602,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -610,7 +610,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -618,7 +618,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
@@ -626,7 +626,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
@@ -634,7 +634,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
@@ -643,7 +643,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
@@ -651,7 +651,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
@@ -659,7 +659,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
@@ -667,7 +667,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
@@ -675,7 +675,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -684,7 +684,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>9</v>
       </c>
@@ -692,7 +692,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>10</v>
       </c>
@@ -700,7 +700,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>11</v>
       </c>
@@ -708,7 +708,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>12</v>
       </c>
@@ -733,11 +733,11 @@
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="17.109375" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" customWidth="1"/>
@@ -768,7 +768,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -776,7 +776,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -784,7 +784,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
@@ -792,7 +792,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>15</v>
       </c>
@@ -801,7 +801,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>16</v>
       </c>
@@ -809,7 +809,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>17</v>
       </c>
@@ -826,7 +826,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>9</v>
       </c>
@@ -834,7 +834,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
@@ -842,7 +842,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
@@ -850,7 +850,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -858,7 +858,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
@@ -867,7 +867,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
@@ -875,7 +875,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>17</v>
       </c>
@@ -892,7 +892,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>9</v>
       </c>
@@ -900,7 +900,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>10</v>
       </c>
@@ -908,7 +908,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>11</v>
       </c>
@@ -916,7 +916,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>12</v>
       </c>
@@ -924,7 +924,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>15</v>
       </c>
@@ -933,7 +933,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>16</v>
       </c>
@@ -941,7 +941,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>17</v>
       </c>
@@ -953,6 +953,7 @@
   <mergeCells count="1">
     <mergeCell ref="A4:B4"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
